--- a/biology/Botanique/Morelle/Morelle.xlsx
+++ b/biology/Botanique/Morelle/Morelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morelle est un nom vernaculaire ambigu désignant en français certaines plantes du genre Solanum. Il est utilisé aussi d'une façon indistincte pour désigner plusieurs espèces de ce genre qui n'ont pas de nom vernaculaire, comme Solanum   heterodoxum Dunal ex DC., 1813 ou encore Solanum rostratum Dunal 1813. 
-Le terme morelle dérive du latin médiéval, maurella qui vient lui-même de Maure[1].
+Le terme morelle dérive du latin médiéval, maurella qui vient lui-même de Maure.
 Ces plantes sont souvent toxiques, leurs fruits colorés en particulier, cependant certaines Morelles, comme la Morelle d'Amérique ou la Morelle de Quito, sont comestibles[réf. souhaitée]. Les fleurs de morelles toxiques bénéficient d'une pollinisation vibratile par des halictes : le mouvement des ailes des insectes libère le pollen qui, une fois au nid, nourrira les larves. En allant d'une fleur à l'autre, le pollen permettra la reproduction des plantes.
 </t>
         </is>
@@ -515,15 +527,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A à C
-Solanum americanum - Morelle d'Amérique Mill. , 1768, brède bleu (dans l'Océan Indien)
+          <t>A à C</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Solanum americanum - Morelle d'Amérique Mill. , 1768, brède bleu (dans l'Océan Indien)
 Solanum aviculare G.Forst. , 1786 - Morelle du Cap ou Morelle des oiseaux
 Atropa belladonna L. , 1753 - Belladone, Morelle furieuse ou Morelle marine
 Solanum bonariense L. , 1753 - Morelle de Buenos Aires
 Solanum capsicastrum Link ex Schauer, 1833
-Solanum chenopodioides Lam. , 1794 - Morelle faux chénopode, Morelle grêle ou Morelle sublobée
-D à N
-Lycianthes rantonnetii, arbre à gentiane ou Morelle de Rantonnet
+Solanum chenopodioides Lam. , 1794 - Morelle faux chénopode, Morelle grêle ou Morelle sublobée</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Morelle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morelle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de plantes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>D à N</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lycianthes rantonnetii, arbre à gentiane ou Morelle de Rantonnet
 Solanum dulcamara L. , 1753 - Morelle douce-amère ou Morelle grimpante
 Solanum dulcamara var. marinum Bab. , 1843 - Morelle marine
 Solanum elaeagnifolium Cav. , 1795 - Morelle jaune ou Morelle à feuilles de chalef
@@ -533,17 +584,85 @@
 Solanum linnaeanum Hepper &amp; Jaeger - Morelle de Linné
 Solanum nigrum L. - Morelle noire
 Solanum nigrum L. , 1753 - Morelle vert jaune
-Solanum nigrum subsp. schultesii (Opiz) Wessely, 1961 - Morelle de Schultes
-O à R
-Solanum physalifolium Rusby, 1896 - Morelle à feuilles de coqueret
+Solanum nigrum subsp. schultesii (Opiz) Wessely, 1961 - Morelle de Schultes</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Morelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de plantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>O à R</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Solanum physalifolium Rusby, 1896 - Morelle à feuilles de coqueret
 Solanum physalifolium var. nitidibaccatum (Bitter) Edmonds, 1986 - Morelle à baies luisantes
 Solanum ×procurrens A.C. Leslie, 1978
 Solanum pseudocapsicum L. , 1753
 Solanum quitoense Lam. , - Morelle de Quito
 Solanum rantonnetii Carrière ex Lesc. , 1859
-Solanum rostratum Dunal, 1813
-S à U
-Solanum scabrum Mill. , 1768 - Morelle scabre
+Solanum rostratum Dunal, 1813</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Morelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de plantes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>S à U</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Solanum scabrum Mill. , 1768 - Morelle scabre
 Solanum sisymbriifolium Lam. , 1794
 Solanum sarachoides Sendtn. , 1846 - Morelle fausse saracha
 Solanum triflorum Nutt. , 1818 - Morelle à trois fleurs
